--- a/中间数据集/经过清洗的数据集2.xlsx
+++ b/中间数据集/经过清洗的数据集2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,11 +509,6 @@
           <t>二氧化硫(SO2)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Sum</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -563,9 +558,6 @@
       <c r="O2" t="n">
         <v>0.39</v>
       </c>
-      <c r="P2" t="n">
-        <v>97.61</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -615,9 +607,6 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
-        <v>99.88999999999999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -667,9 +656,6 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -719,9 +705,6 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
-        <v>98.88</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -771,9 +754,6 @@
       <c r="O6" t="n">
         <v>0.36</v>
       </c>
-      <c r="P6" t="n">
-        <v>96.06000000000002</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -823,9 +803,6 @@
       <c r="O7" t="n">
         <v>0.47</v>
       </c>
-      <c r="P7" t="n">
-        <v>96.50999999999999</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -875,9 +852,6 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="n">
-        <v>98.92000000000003</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -927,9 +901,6 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="n">
-        <v>98.84000000000002</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -979,9 +950,6 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="n">
-        <v>99.69999999999999</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1031,9 +999,6 @@
       <c r="O11" t="n">
         <v>2.58</v>
       </c>
-      <c r="P11" t="n">
-        <v>99.82000000000001</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1083,9 +1048,6 @@
       <c r="O12" t="n">
         <v>15.03</v>
       </c>
-      <c r="P12" t="n">
-        <v>98.24000000000001</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1135,9 +1097,6 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="n">
-        <v>99.76999999999998</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1187,9 +1146,6 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="n">
-        <v>99.81</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1239,9 +1195,6 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="n">
-        <v>95.39</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1291,9 +1244,6 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="n">
-        <v>99.57000000000002</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1343,9 +1293,6 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="n">
-        <v>98.13999999999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1395,9 +1342,6 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1447,9 +1391,6 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="n">
-        <v>98.40999999999998</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1499,9 +1440,6 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="n">
-        <v>97.24999999999999</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1551,9 +1489,6 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" t="n">
-        <v>98.75999999999999</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1603,9 +1538,6 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="n">
-        <v>88.41</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1655,9 +1587,6 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="n">
-        <v>98.52</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1707,9 +1636,6 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="n">
-        <v>99.99999999999997</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1759,9 +1685,6 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="n">
-        <v>96.5</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1811,9 +1734,6 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="n">
-        <v>98.88000000000001</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1863,9 +1783,6 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="n">
-        <v>97.06</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1915,9 +1832,6 @@
       <c r="O28" t="n">
         <v>1.96</v>
       </c>
-      <c r="P28" t="n">
-        <v>99.81999999999999</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1967,9 +1881,6 @@
       <c r="O29" t="n">
         <v>15.95</v>
       </c>
-      <c r="P29" t="n">
-        <v>99.89000000000001</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2019,9 +1930,6 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="n">
-        <v>98.81000000000002</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2071,9 +1979,6 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="n">
-        <v>98.69000000000003</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2123,9 +2028,6 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="n">
-        <v>99.88</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2175,9 +2077,6 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="n">
-        <v>97.94999999999999</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2227,9 +2126,6 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="n">
-        <v>98.7</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2279,9 +2175,6 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="P35" t="n">
-        <v>98.42999999999999</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2331,9 +2224,6 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="n">
-        <v>98.65999999999998</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2383,9 +2273,6 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="n">
-        <v>99.95999999999999</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2435,9 +2322,6 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="P38" t="n">
-        <v>97.52</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2487,9 +2371,6 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="n">
-        <v>96.20999999999999</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2539,9 +2420,6 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="n">
-        <v>97.62999999999998</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2591,9 +2469,6 @@
       <c r="O41" t="n">
         <v>3.66</v>
       </c>
-      <c r="P41" t="n">
-        <v>99.97999999999999</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2643,9 +2518,6 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="n">
-        <v>98.57000000000001</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2695,9 +2567,6 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>98.75999999999999</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2747,9 +2616,6 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="n">
-        <v>98.56999999999999</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2799,9 +2665,6 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="n">
-        <v>93.70999999999999</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2851,9 +2714,6 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="n">
-        <v>98.00999999999999</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2903,9 +2763,6 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="n">
-        <v>97.89999999999999</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2955,9 +2812,6 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="n">
-        <v>94.68000000000001</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3007,9 +2861,6 @@
       <c r="O49" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="n">
-        <v>96.67</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3059,9 +2910,6 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
-      <c r="P50" t="n">
-        <v>99.12</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3111,9 +2959,6 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="n">
-        <v>98.33999999999999</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3163,9 +3008,6 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
-      <c r="P52" t="n">
-        <v>98.63000000000001</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3215,9 +3057,6 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
-      <c r="P53" t="n">
-        <v>97.25999999999999</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3267,9 +3106,6 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="P54" t="n">
-        <v>99.16999999999999</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3319,9 +3155,6 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
-      <c r="P55" t="n">
-        <v>95.49999999999999</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3371,9 +3204,6 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="n">
-        <v>98.23999999999999</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3423,9 +3253,6 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="n">
-        <v>90.17</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3475,9 +3302,6 @@
       <c r="O58" t="n">
         <v>0</v>
       </c>
-      <c r="P58" t="n">
-        <v>96.94000000000001</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3527,9 +3351,6 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
-      <c r="P59" t="n">
-        <v>95.32999999999998</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3579,9 +3400,6 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
-      <c r="P60" t="n">
-        <v>91.7</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3631,9 +3449,6 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
-      <c r="P61" t="n">
-        <v>94.07999999999998</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3683,9 +3498,6 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
-      <c r="P62" t="n">
-        <v>98.25</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3735,9 +3547,6 @@
       <c r="O63" t="n">
         <v>0</v>
       </c>
-      <c r="P63" t="n">
-        <v>99.67</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3787,9 +3596,6 @@
       <c r="O64" t="n">
         <v>0</v>
       </c>
-      <c r="P64" t="n">
-        <v>96.92</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3839,9 +3645,6 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
-      <c r="P65" t="n">
-        <v>96.38000000000001</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3891,9 +3694,6 @@
       <c r="O66" t="n">
         <v>0</v>
       </c>
-      <c r="P66" t="n">
-        <v>92.24000000000001</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3943,9 +3743,6 @@
       <c r="O67" t="n">
         <v>0</v>
       </c>
-      <c r="P67" t="n">
-        <v>92.47</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3994,9 +3791,6 @@
       </c>
       <c r="O68" t="n">
         <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>98.75999999999999</v>
       </c>
     </row>
   </sheetData>
